--- a/data/trans_orig/P5705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD16FB1B-E3B4-4B89-92FC-DCC2EC5C0B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEC1629-30F1-49F7-81D6-7CBB4CD50E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57E65226-5C60-40BC-955C-F9E25997B033}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFE25DDF-6F98-4A96-A6C9-13F981329BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,58 +77,58 @@
     <t>53,39%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>49,34%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
     <t>Casi como deseo</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,1816 +137,1816 @@
     <t>13,77%</t>
   </si>
   <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>60,68%</t>
   </si>
   <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,3%</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A91BA1-2647-4C14-B9C2-6701E4DF81A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BAC9E9-411B-46A3-A974-0DD094F08971}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2817,7 +2817,7 @@
         <v>2028</v>
       </c>
       <c r="N10" s="7">
-        <v>2082149</v>
+        <v>2082150</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -3072,7 +3072,7 @@
         <v>3201</v>
       </c>
       <c r="N15" s="7">
-        <v>3279110</v>
+        <v>3279111</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -3230,13 +3230,13 @@
         <v>69559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,10 +3251,10 @@
         <v>9482</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>134</v>
@@ -3266,10 +3266,10 @@
         <v>9376</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>136</v>
@@ -3308,7 +3308,7 @@
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3332,13 +3332,13 @@
         <v>834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3610,13 @@
         <v>11576</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3625,13 +3625,13 @@
         <v>12346</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -3640,13 +3640,13 @@
         <v>23922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3AC33A-75A5-46F3-96A0-87502FD21F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B72D5DF-4770-4E2E-8648-88DCE59D4DF4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3738,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3845,13 +3845,13 @@
         <v>584241</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>731</v>
@@ -3860,13 +3860,13 @@
         <v>781542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>1276</v>
@@ -3875,13 +3875,13 @@
         <v>1365783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3896,13 @@
         <v>257141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>364</v>
@@ -3911,13 +3911,13 @@
         <v>390244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>602</v>
@@ -3926,13 +3926,13 @@
         <v>647385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3947,13 @@
         <v>96917</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>110</v>
@@ -3962,13 +3962,13 @@
         <v>122061</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>200</v>
@@ -3977,13 +3977,13 @@
         <v>218978</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3998,13 @@
         <v>19624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4013,13 +4013,13 @@
         <v>27874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4028,13 +4028,13 @@
         <v>47498</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4049,13 @@
         <v>9786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4064,13 +4064,13 @@
         <v>10876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4079,10 +4079,10 @@
         <v>20662</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>230</v>
@@ -4306,13 +4306,13 @@
         <v>21694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4321,13 +4321,13 @@
         <v>24474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4336,13 +4336,13 @@
         <v>46168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,7 +4363,7 @@
         <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4372,13 +4372,13 @@
         <v>6526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -4387,13 +4387,13 @@
         <v>9395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4461,13 @@
         <v>328519</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>290</v>
@@ -4476,13 +4476,13 @@
         <v>320826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>593</v>
@@ -4491,13 +4491,13 @@
         <v>649345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4512,13 @@
         <v>122264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4527,13 +4527,13 @@
         <v>117700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -4542,13 +4542,13 @@
         <v>239965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4563,13 @@
         <v>20881</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4578,13 +4578,13 @@
         <v>17985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -4593,13 +4593,13 @@
         <v>38866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4614,13 @@
         <v>4024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4629,13 +4629,13 @@
         <v>959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4644,13 +4644,13 @@
         <v>4982</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4665,13 @@
         <v>3397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4683,10 +4683,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4695,13 +4695,13 @@
         <v>3397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4769,13 @@
         <v>2252850</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>2089</v>
@@ -4784,13 +4784,13 @@
         <v>2250571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>4206</v>
@@ -4799,13 +4799,13 @@
         <v>4503422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4820,13 @@
         <v>833861</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
@@ -4835,13 +4835,13 @@
         <v>961438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>1669</v>
@@ -4850,13 +4850,13 @@
         <v>1795299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4871,13 @@
         <v>260391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="H24" s="7">
         <v>241</v>
@@ -4886,13 +4886,13 @@
         <v>262002</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M24" s="7">
         <v>480</v>
@@ -4901,13 +4901,13 @@
         <v>522393</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4922,13 @@
         <v>45342</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -4937,13 +4937,13 @@
         <v>53307</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -4952,13 +4952,13 @@
         <v>98648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4973,13 @@
         <v>16051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4988,13 +4988,13 @@
         <v>17403</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>340</v>
+        <v>51</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -5003,13 +5003,13 @@
         <v>33454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,7 +5065,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAE9AD9-0199-47DE-9A6C-844B2E744F76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB84C7-300C-4DE1-93A9-C8FDED331C50}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5101,7 +5101,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5208,13 +5208,13 @@
         <v>361074</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H4" s="7">
         <v>424</v>
@@ -5223,13 +5223,13 @@
         <v>475548</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>789</v>
@@ -5238,13 +5238,13 @@
         <v>836622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5259,13 @@
         <v>245870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -5274,13 +5274,13 @@
         <v>317027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>537</v>
@@ -5289,13 +5289,13 @@
         <v>562897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5310,13 @@
         <v>104761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H6" s="7">
         <v>143</v>
@@ -5325,13 +5325,13 @@
         <v>160484</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M6" s="7">
         <v>248</v>
@@ -5340,13 +5340,13 @@
         <v>265245</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5361,13 @@
         <v>32779</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -5376,13 +5376,13 @@
         <v>30186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5391,13 +5391,13 @@
         <v>62965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5412,13 @@
         <v>8731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>380</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5427,13 +5427,13 @@
         <v>10144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5442,13 +5442,13 @@
         <v>18875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>382</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>383</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5516,13 @@
         <v>1147849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>1007</v>
@@ -5531,13 +5531,13 @@
         <v>1039641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>2077</v>
@@ -5546,13 +5546,13 @@
         <v>2187490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,10 +5567,10 @@
         <v>647691</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>395</v>
@@ -5672,7 +5672,7 @@
         <v>411</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>412</v>
@@ -5687,10 +5687,10 @@
         <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5705,7 +5705,7 @@
         <v>416</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5720,13 @@
         <v>10266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>417</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5735,13 +5735,13 @@
         <v>5260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5750,13 +5750,13 @@
         <v>15525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
         <v>3852</v>
       </c>
       <c r="N15" s="7">
-        <v>4055711</v>
+        <v>4055710</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5824,13 +5824,13 @@
         <v>333978</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H16" s="7">
         <v>324</v>
@@ -5839,13 +5839,13 @@
         <v>335198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M16" s="7">
         <v>630</v>
@@ -5854,13 +5854,13 @@
         <v>669176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5875,13 @@
         <v>152341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -5890,13 +5890,13 @@
         <v>153877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -5905,13 +5905,13 @@
         <v>306217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,13 +5926,13 @@
         <v>55628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -5941,13 +5941,13 @@
         <v>48052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -5956,13 +5956,13 @@
         <v>103680</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +5977,13 @@
         <v>3082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5992,13 +5992,13 @@
         <v>5957</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6007,13 +6007,13 @@
         <v>9039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>454</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6028,13 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>448</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>456</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6043,13 +6043,13 @@
         <v>1819</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6058,13 +6058,13 @@
         <v>2812</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6132,13 @@
         <v>1842901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>1755</v>
@@ -6147,13 +6147,13 @@
         <v>1850387</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M22" s="7">
         <v>3496</v>
@@ -6162,13 +6162,13 @@
         <v>3693287</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6183,13 @@
         <v>1045902</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H23" s="7">
         <v>1076</v>
@@ -6198,13 +6198,13 @@
         <v>1142275</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M23" s="7">
         <v>2082</v>
@@ -6213,13 +6213,13 @@
         <v>2188177</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6234,13 @@
         <v>391541</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H24" s="7">
         <v>412</v>
@@ -6249,13 +6249,13 @@
         <v>445675</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M24" s="7">
         <v>786</v>
@@ -6264,13 +6264,13 @@
         <v>837216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6285,13 @@
         <v>71785</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>482</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -6300,13 +6300,13 @@
         <v>65561</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>486</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -6315,13 +6315,13 @@
         <v>137346</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>488</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6336,13 @@
         <v>19989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>418</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6351,13 +6351,13 @@
         <v>17223</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>339</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>90</v>
+        <v>492</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6366,13 +6366,13 @@
         <v>37212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>421</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,7 +6428,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6447,7 +6447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088C624D-099B-4FC0-B365-5EEC23E2302D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A637B20-8BA4-44CE-80CD-7B019F6747CF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6464,7 +6464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6571,13 +6571,13 @@
         <v>289065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H4" s="7">
         <v>721</v>
@@ -6586,13 +6586,13 @@
         <v>417784</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>493</v>
+        <v>354</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>495</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>1082</v>
@@ -6601,13 +6601,13 @@
         <v>706849</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6622,13 @@
         <v>141890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>404</v>
@@ -6637,13 +6637,13 @@
         <v>240857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>504</v>
+        <v>358</v>
       </c>
       <c r="M5" s="7">
         <v>584</v>
@@ -6652,13 +6652,13 @@
         <v>382746</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6673,13 @@
         <v>57658</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>510</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H6" s="7">
         <v>179</v>
@@ -6688,13 +6688,13 @@
         <v>100278</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M6" s="7">
         <v>258</v>
@@ -6703,13 +6703,13 @@
         <v>157936</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,7 +6724,7 @@
         <v>36025</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>516</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>517</v>
@@ -6757,10 +6757,10 @@
         <v>522</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6775,13 @@
         <v>16143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>525</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -6790,13 +6790,13 @@
         <v>18353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>529</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -6805,13 +6805,13 @@
         <v>34496</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6879,13 @@
         <v>1357401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H10" s="7">
         <v>1713</v>
@@ -6894,13 +6894,13 @@
         <v>1310761</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M10" s="7">
         <v>2848</v>
@@ -6909,13 +6909,13 @@
         <v>2668163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +6930,13 @@
         <v>606942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H11" s="7">
         <v>922</v>
@@ -6945,13 +6945,13 @@
         <v>739140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>543</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -6960,13 +6960,13 @@
         <v>1346082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>549</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,13 +6981,13 @@
         <v>107466</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H12" s="7">
         <v>162</v>
@@ -6996,13 +6996,13 @@
         <v>120110</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>551</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M12" s="7">
         <v>277</v>
@@ -7011,13 +7011,13 @@
         <v>227577</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,10 +7035,10 @@
         <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -7047,13 +7047,13 @@
         <v>66057</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>562</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -7062,13 +7062,13 @@
         <v>136755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>561</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,10 +7086,10 @@
         <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>563</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>564</v>
+        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -7098,13 +7098,13 @@
         <v>11573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>565</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>566</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>567</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -7113,13 +7113,13 @@
         <v>28369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>567</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,7 +7244,7 @@
         <v>579</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>353</v>
+        <v>580</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -7253,13 +7253,13 @@
         <v>153466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -7268,13 +7268,13 @@
         <v>325111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7289,13 @@
         <v>26763</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -7304,13 +7304,13 @@
         <v>33049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>591</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -7319,7 +7319,7 @@
         <v>59812</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>592</v>
@@ -7340,13 +7340,13 @@
         <v>8511</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>594</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>567</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7355,13 +7355,13 @@
         <v>6781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>596</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -7370,13 +7370,13 @@
         <v>15292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>595</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7391,13 @@
         <v>7807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7406,13 +7406,13 @@
         <v>5632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>599</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>598</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -7421,13 +7421,13 @@
         <v>13439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7495,13 @@
         <v>2104781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H22" s="7">
         <v>3137</v>
@@ -7510,13 +7510,13 @@
         <v>2243504</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M22" s="7">
         <v>5073</v>
@@ -7525,13 +7525,13 @@
         <v>4348285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>608</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7546,13 @@
         <v>920477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>613</v>
       </c>
       <c r="H23" s="7">
         <v>1565</v>
@@ -7561,13 +7561,13 @@
         <v>1133463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="M23" s="7">
         <v>2575</v>
@@ -7576,13 +7576,13 @@
         <v>2053940</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>616</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,13 +7597,13 @@
         <v>191887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H24" s="7">
         <v>381</v>
@@ -7612,13 +7612,13 @@
         <v>253437</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M24" s="7">
         <v>605</v>
@@ -7627,13 +7627,13 @@
         <v>445324</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>617</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>624</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,10 +7648,10 @@
         <v>115233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>626</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>627</v>
@@ -7699,10 +7699,10 @@
         <v>40747</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>564</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>633</v>
@@ -7717,10 +7717,10 @@
         <v>634</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -7729,13 +7729,13 @@
         <v>76304</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,7 +7791,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEC1629-30F1-49F7-81D6-7CBB4CD50E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD85616-F7F7-4237-93A9-22687BA5B173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFE25DDF-6F98-4A96-A6C9-13F981329BD2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6316414F-28C3-4BC3-8679-4DCC5FAAAFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
   <si>
     <t>Población según la frecuencia de recibir amor y afecto en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>53,39%</t>
   </si>
   <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>26,32%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,1786 +167,1765 @@
     <t>5,72%</t>
   </si>
   <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BAC9E9-411B-46A3-A974-0DD094F08971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2543E6F-A20B-43BE-9734-61C44C0DC2AD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2787,7 +2766,7 @@
         <v>1054</v>
       </c>
       <c r="D10" s="7">
-        <v>1093129</v>
+        <v>1093130</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2838,7 +2817,7 @@
         <v>449</v>
       </c>
       <c r="D11" s="7">
-        <v>453380</v>
+        <v>453381</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -3042,7 +3021,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3113,13 +3092,13 @@
         <v>319314</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>650</v>
@@ -3128,13 +3107,13 @@
         <v>680753</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3128,13 @@
         <v>139029</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -3164,13 +3143,13 @@
         <v>118788</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
@@ -3179,13 +3158,13 @@
         <v>257817</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3179,13 @@
         <v>40624</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -3215,13 +3194,13 @@
         <v>28934</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -3230,13 +3209,13 @@
         <v>69559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3230,13 @@
         <v>9482</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3266,13 +3245,13 @@
         <v>9376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3284,10 +3263,10 @@
         <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3287,7 @@
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3320,10 +3299,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3332,13 +3311,13 @@
         <v>834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,16 +3382,16 @@
         <v>1960</v>
       </c>
       <c r="D22" s="7">
-        <v>2005425</v>
+        <v>2005424</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>1955</v>
@@ -3421,13 +3400,13 @@
         <v>1993790</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>3915</v>
@@ -3436,13 +3415,13 @@
         <v>3999215</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,16 +3433,16 @@
         <v>855</v>
       </c>
       <c r="D23" s="7">
-        <v>863970</v>
+        <v>863969</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>888</v>
@@ -3472,13 +3451,13 @@
         <v>909678</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>1743</v>
@@ -3487,13 +3466,13 @@
         <v>1773648</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3487,13 @@
         <v>305187</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>338</v>
@@ -3523,13 +3502,13 @@
         <v>351969</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>638</v>
@@ -3538,13 +3517,13 @@
         <v>657156</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3538,13 @@
         <v>90386</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
@@ -3574,13 +3553,13 @@
         <v>109439</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>191</v>
@@ -3589,13 +3568,13 @@
         <v>199825</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3589,13 @@
         <v>11576</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3628,10 +3607,10 @@
         <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -3640,13 +3619,13 @@
         <v>23922</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3637,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3702,7 +3681,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B72D5DF-4770-4E2E-8648-88DCE59D4DF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC2B555-0637-4F59-A22B-745810C77E13}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3845,13 +3824,13 @@
         <v>584241</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>731</v>
@@ -3860,13 +3839,13 @@
         <v>781542</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>1276</v>
@@ -3875,13 +3854,13 @@
         <v>1365783</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3875,13 @@
         <v>257141</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>364</v>
@@ -3911,13 +3890,13 @@
         <v>390244</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>602</v>
@@ -3926,13 +3905,13 @@
         <v>647385</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3926,13 @@
         <v>96917</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>110</v>
@@ -3962,13 +3941,13 @@
         <v>122061</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>200</v>
@@ -3977,13 +3956,13 @@
         <v>218978</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3977,13 @@
         <v>19624</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4013,13 +3992,13 @@
         <v>27874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4028,13 +4007,13 @@
         <v>47498</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4028,13 @@
         <v>9786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4064,13 +4043,13 @@
         <v>10876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4079,13 +4058,13 @@
         <v>20662</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4132,13 @@
         <v>1340091</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>1068</v>
@@ -4168,13 +4147,13 @@
         <v>1148203</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>2337</v>
@@ -4183,13 +4162,13 @@
         <v>2488295</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4183,13 @@
         <v>454456</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
@@ -4219,13 +4198,13 @@
         <v>453493</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>854</v>
@@ -4234,13 +4213,13 @@
         <v>907949</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4234,13 @@
         <v>142593</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -4270,13 +4249,13 @@
         <v>121956</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="M12" s="7">
         <v>246</v>
@@ -4285,13 +4264,13 @@
         <v>264549</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4285,13 @@
         <v>21694</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4321,13 +4300,13 @@
         <v>24474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4336,13 +4315,13 @@
         <v>46168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,7 +4342,7 @@
         <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4375,10 +4354,10 @@
         <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -4387,13 +4366,13 @@
         <v>9395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,7 +4384,7 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961701</v>
+        <v>1961702</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4461,13 +4440,13 @@
         <v>328519</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>290</v>
@@ -4476,13 +4455,13 @@
         <v>320826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>593</v>
@@ -4491,13 +4470,13 @@
         <v>649345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4491,13 @@
         <v>122264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4527,13 +4506,13 @@
         <v>117700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -4542,13 +4521,13 @@
         <v>239965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4542,13 @@
         <v>20881</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4578,13 +4557,13 @@
         <v>17985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -4593,13 +4572,13 @@
         <v>38866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4593,13 @@
         <v>4024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4629,13 +4608,13 @@
         <v>959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4644,13 +4623,13 @@
         <v>4982</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4644,13 @@
         <v>3397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4683,10 +4662,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4695,13 +4674,13 @@
         <v>3397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4748,13 @@
         <v>2252850</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>2089</v>
@@ -4784,13 +4763,13 @@
         <v>2250571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>4206</v>
@@ -4799,13 +4778,13 @@
         <v>4503422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4799,13 @@
         <v>833861</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
@@ -4835,13 +4814,13 @@
         <v>961438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
         <v>1669</v>
@@ -4850,13 +4829,13 @@
         <v>1795299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4850,13 @@
         <v>260391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H24" s="7">
         <v>241</v>
@@ -4886,13 +4865,13 @@
         <v>262002</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M24" s="7">
         <v>480</v>
@@ -4901,13 +4880,13 @@
         <v>522393</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4901,13 @@
         <v>45342</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -4937,13 +4916,13 @@
         <v>53307</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -4952,13 +4931,13 @@
         <v>98648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4952,13 @@
         <v>16051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4988,13 +4967,13 @@
         <v>17403</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>52</v>
+        <v>334</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -5003,13 +4982,13 @@
         <v>33454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>343</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,7 +5044,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB84C7-300C-4DE1-93A9-C8FDED331C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67878891-4DD1-4E25-BF19-29BF3B3BEAB8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5101,7 +5080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5208,13 +5187,13 @@
         <v>361074</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>424</v>
@@ -5223,13 +5202,13 @@
         <v>475548</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>789</v>
@@ -5238,13 +5217,13 @@
         <v>836622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5238,13 @@
         <v>245870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -5274,13 +5253,13 @@
         <v>317027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>537</v>
@@ -5289,13 +5268,13 @@
         <v>562897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5289,13 @@
         <v>104761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H6" s="7">
         <v>143</v>
@@ -5325,13 +5304,13 @@
         <v>160484</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>248</v>
@@ -5340,13 +5319,13 @@
         <v>265245</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5340,13 @@
         <v>32779</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>366</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -5376,13 +5355,13 @@
         <v>30186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>375</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5391,13 +5370,13 @@
         <v>62965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>378</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5391,13 @@
         <v>8731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5427,13 +5406,13 @@
         <v>10144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>382</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5442,13 +5421,13 @@
         <v>18875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5495,13 @@
         <v>1147849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>1007</v>
@@ -5531,13 +5510,13 @@
         <v>1039641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>2077</v>
@@ -5546,13 +5525,13 @@
         <v>2187490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5546,13 @@
         <v>647691</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -5582,13 +5561,13 @@
         <v>671371</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -5597,13 +5576,13 @@
         <v>1319062</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5597,13 @@
         <v>231153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>224</v>
@@ -5633,13 +5612,13 @@
         <v>237138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>444</v>
@@ -5648,13 +5627,13 @@
         <v>468291</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5648,13 @@
         <v>35925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>411</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5684,13 +5663,13 @@
         <v>29418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>414</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5699,13 +5678,13 @@
         <v>65343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>416</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5699,13 @@
         <v>10266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>409</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>410</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>418</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5735,13 +5714,13 @@
         <v>5260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -5753,10 +5732,10 @@
         <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>422</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5777,7 @@
         <v>3852</v>
       </c>
       <c r="N15" s="7">
-        <v>4055710</v>
+        <v>4055711</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5824,13 +5803,13 @@
         <v>333978</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>324</v>
@@ -5839,13 +5818,13 @@
         <v>335198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>630</v>
@@ -5854,13 +5833,13 @@
         <v>669176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5854,13 @@
         <v>152341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -5890,13 +5869,13 @@
         <v>153877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -5905,13 +5884,13 @@
         <v>306217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,13 +5905,13 @@
         <v>55628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -5941,13 +5920,13 @@
         <v>48052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -5956,13 +5935,13 @@
         <v>103680</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>447</v>
+        <v>319</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +5956,13 @@
         <v>3082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>450</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5992,13 +5971,13 @@
         <v>5957</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>452</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6010,10 +5989,10 @@
         <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>454</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6007,13 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6043,13 +6022,13 @@
         <v>1819</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>457</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6058,13 +6037,13 @@
         <v>2812</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>458</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6111,13 @@
         <v>1842901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>1755</v>
@@ -6147,13 +6126,13 @@
         <v>1850387</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>3496</v>
@@ -6162,13 +6141,13 @@
         <v>3693287</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6162,13 @@
         <v>1045902</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>346</v>
       </c>
       <c r="H23" s="7">
         <v>1076</v>
@@ -6198,13 +6177,13 @@
         <v>1142275</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>2082</v>
@@ -6213,13 +6192,13 @@
         <v>2188177</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6213,13 @@
         <v>391541</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>477</v>
+        <v>399</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>412</v>
@@ -6249,13 +6228,13 @@
         <v>445675</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>786</v>
@@ -6264,13 +6243,13 @@
         <v>837216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>364</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6264,13 @@
         <v>71785</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>484</v>
+        <v>260</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>468</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -6300,13 +6279,13 @@
         <v>65561</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -6315,13 +6294,13 @@
         <v>137346</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6315,13 @@
         <v>19989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6351,13 +6330,13 @@
         <v>17223</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>52</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6366,13 +6345,13 @@
         <v>37212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>55</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,7 +6407,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6447,7 +6426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A637B20-8BA4-44CE-80CD-7B019F6747CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DFA98C-7842-4621-B0CC-9C3D0A14D30B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6464,7 +6443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6571,13 +6550,13 @@
         <v>289065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>496</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>721</v>
@@ -6586,13 +6565,13 @@
         <v>417784</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>354</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>1082</v>
@@ -6601,13 +6580,13 @@
         <v>706849</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6601,13 @@
         <v>141890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>404</v>
@@ -6637,13 +6616,13 @@
         <v>240857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>584</v>
@@ -6652,13 +6631,13 @@
         <v>382746</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6652,13 @@
         <v>57658</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>510</v>
+        <v>323</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="H6" s="7">
         <v>179</v>
@@ -6688,13 +6667,13 @@
         <v>100278</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>513</v>
+        <v>162</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="M6" s="7">
         <v>258</v>
@@ -6703,13 +6682,13 @@
         <v>157936</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6703,13 @@
         <v>36025</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>502</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -6739,13 +6718,13 @@
         <v>54300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -6754,13 +6733,13 @@
         <v>90324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6754,13 @@
         <v>16143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -6790,13 +6769,13 @@
         <v>18353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>528</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -6805,13 +6784,13 @@
         <v>34496</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>532</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6858,13 @@
         <v>1357401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="H10" s="7">
         <v>1713</v>
@@ -6894,13 +6873,13 @@
         <v>1310761</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="M10" s="7">
         <v>2848</v>
@@ -6909,13 +6888,13 @@
         <v>2668163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +6909,13 @@
         <v>606942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="H11" s="7">
         <v>922</v>
@@ -6945,13 +6924,13 @@
         <v>739140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>531</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -6960,13 +6939,13 @@
         <v>1346082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,13 +6960,13 @@
         <v>107466</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="H12" s="7">
         <v>162</v>
@@ -6996,13 +6975,13 @@
         <v>120110</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>540</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="M12" s="7">
         <v>277</v>
@@ -7011,13 +6990,13 @@
         <v>227577</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7011,13 @@
         <v>70698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>545</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -7047,13 +7026,13 @@
         <v>66057</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -7062,13 +7041,13 @@
         <v>136755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>564</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>551</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,10 +7065,10 @@
         <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>553</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -7101,10 +7080,10 @@
         <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -7113,13 +7092,13 @@
         <v>28369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>568</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7166,13 @@
         <v>458313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="H16" s="7">
         <v>703</v>
@@ -7202,13 +7181,13 @@
         <v>514958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="M16" s="7">
         <v>1143</v>
@@ -7217,13 +7196,13 @@
         <v>973273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>576</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7217,13 @@
         <v>171644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -7253,13 +7232,13 @@
         <v>153466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>582</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -7268,13 +7247,13 @@
         <v>325111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7268,13 @@
         <v>26763</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>588</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -7304,13 +7283,13 @@
         <v>33049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>577</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -7319,13 +7298,13 @@
         <v>59812</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>578</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7319,13 @@
         <v>8511</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>594</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>581</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7355,13 +7334,13 @@
         <v>6781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>458</v>
+        <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>584</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -7370,13 +7349,13 @@
         <v>15292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>586</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7370,13 @@
         <v>7807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>553</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7406,13 +7385,13 @@
         <v>5632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -7421,13 +7400,13 @@
         <v>13439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7474,13 @@
         <v>2104781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="H22" s="7">
         <v>3137</v>
@@ -7510,13 +7489,13 @@
         <v>2243504</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="M22" s="7">
         <v>5073</v>
@@ -7525,13 +7504,13 @@
         <v>4348285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7525,13 @@
         <v>920477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H23" s="7">
         <v>1565</v>
@@ -7561,13 +7540,13 @@
         <v>1133463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="M23" s="7">
         <v>2575</v>
@@ -7576,13 +7555,13 @@
         <v>2053940</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,13 +7576,13 @@
         <v>191887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="H24" s="7">
         <v>381</v>
@@ -7612,13 +7591,13 @@
         <v>253437</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="M24" s="7">
         <v>605</v>
@@ -7627,13 +7606,13 @@
         <v>445324</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,13 +7627,13 @@
         <v>115233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>626</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>618</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H25" s="7">
         <v>197</v>
@@ -7663,13 +7642,13 @@
         <v>127138</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>339</v>
@@ -7678,13 +7657,13 @@
         <v>242371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,13 +7678,13 @@
         <v>40747</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>262</v>
+        <v>625</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -7714,13 +7693,13 @@
         <v>35558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -7729,13 +7708,13 @@
         <v>76304</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>628</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>262</v>
+        <v>625</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>635</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,7 +7770,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD85616-F7F7-4237-93A9-22687BA5B173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F112205D-AC77-4571-B617-8E5E8AD11C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6316414F-28C3-4BC3-8679-4DCC5FAAAFFC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{132AD559-90E6-4417-8BB2-89AC0BB94B27}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="636">
   <si>
     <t>Población según la frecuencia de recibir amor y afecto en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>53,39%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,10 +107,10 @@
     <t>26,32%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>26,95%</t>
@@ -119,16 +119,16 @@
     <t>24,58%</t>
   </si>
   <si>
-    <t>29,42%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,1759 +167,1780 @@
     <t>5,72%</t>
   </si>
   <si>
-    <t>4,24%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
   </si>
   <si>
     <t>0,94%</t>
@@ -2337,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2543E6F-A20B-43BE-9734-61C44C0DC2AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5579B283-11FD-4E25-9A0C-F433E798BE56}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2766,7 +2787,7 @@
         <v>1054</v>
       </c>
       <c r="D10" s="7">
-        <v>1093130</v>
+        <v>1093129</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2796,7 +2817,7 @@
         <v>2028</v>
       </c>
       <c r="N10" s="7">
-        <v>2082150</v>
+        <v>2082149</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2817,7 +2838,7 @@
         <v>449</v>
       </c>
       <c r="D11" s="7">
-        <v>453381</v>
+        <v>453380</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -3021,7 +3042,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3051,7 +3072,7 @@
         <v>3201</v>
       </c>
       <c r="N15" s="7">
-        <v>3279111</v>
+        <v>3279110</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -3092,13 +3113,13 @@
         <v>319314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>650</v>
@@ -3107,13 +3128,13 @@
         <v>680753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3149,13 @@
         <v>139029</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -3143,13 +3164,13 @@
         <v>118788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
@@ -3158,13 +3179,13 @@
         <v>257817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3200,13 @@
         <v>40624</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -3194,13 +3215,13 @@
         <v>28934</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -3209,13 +3230,13 @@
         <v>69559</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3251,13 @@
         <v>9482</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3245,13 +3266,13 @@
         <v>9376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3263,10 +3284,10 @@
         <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,7 +3308,7 @@
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3299,10 +3320,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3311,13 +3332,13 @@
         <v>834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,16 +3403,16 @@
         <v>1960</v>
       </c>
       <c r="D22" s="7">
-        <v>2005424</v>
+        <v>2005425</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>1955</v>
@@ -3400,13 +3421,13 @@
         <v>1993790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>3915</v>
@@ -3415,13 +3436,13 @@
         <v>3999215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,16 +3454,16 @@
         <v>855</v>
       </c>
       <c r="D23" s="7">
-        <v>863969</v>
+        <v>863970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>888</v>
@@ -3451,13 +3472,13 @@
         <v>909678</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>1743</v>
@@ -3466,13 +3487,13 @@
         <v>1773648</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3508,13 @@
         <v>305187</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>338</v>
@@ -3502,13 +3523,13 @@
         <v>351969</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>638</v>
@@ -3517,13 +3538,13 @@
         <v>657156</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3559,13 @@
         <v>90386</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>102</v>
@@ -3553,13 +3574,13 @@
         <v>109439</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>191</v>
@@ -3568,13 +3589,13 @@
         <v>199825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,7 +3610,7 @@
         <v>11576</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>179</v>
@@ -3604,7 +3625,7 @@
         <v>12346</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>181</v>
@@ -3637,7 +3658,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3700,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC2B555-0637-4F59-A22B-745810C77E13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8A73F2-D992-44FB-B6AE-40E602617CFE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3926,13 +3947,13 @@
         <v>96917</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>110</v>
@@ -3941,13 +3962,13 @@
         <v>122061</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>200</v>
@@ -3956,13 +3977,13 @@
         <v>218978</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3998,13 @@
         <v>19624</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3992,13 +4013,13 @@
         <v>27874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4007,13 +4028,13 @@
         <v>47498</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4049,13 @@
         <v>9786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4043,13 +4064,13 @@
         <v>10876</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4058,13 +4079,13 @@
         <v>20662</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4153,13 @@
         <v>1340091</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>1068</v>
@@ -4147,13 +4168,13 @@
         <v>1148203</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>2337</v>
@@ -4162,13 +4183,13 @@
         <v>2488295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4204,13 @@
         <v>454456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
@@ -4198,13 +4219,13 @@
         <v>453493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>854</v>
@@ -4213,13 +4234,13 @@
         <v>907949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4255,13 @@
         <v>142593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -4249,13 +4270,13 @@
         <v>121956</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>246</v>
@@ -4264,13 +4285,13 @@
         <v>264549</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4306,13 @@
         <v>21694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4300,13 +4321,13 @@
         <v>24474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4315,13 +4336,13 @@
         <v>46168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4363,7 @@
         <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4351,13 +4372,13 @@
         <v>6526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -4366,13 +4387,13 @@
         <v>9395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,7 +4405,7 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961702</v>
+        <v>1961701</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4440,13 +4461,13 @@
         <v>328519</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>290</v>
@@ -4455,13 +4476,13 @@
         <v>320826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>593</v>
@@ -4470,13 +4491,13 @@
         <v>649345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4512,13 @@
         <v>122264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4506,13 +4527,13 @@
         <v>117700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -4521,13 +4542,13 @@
         <v>239965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4563,13 @@
         <v>20881</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4557,13 +4578,13 @@
         <v>17985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -4572,13 +4593,13 @@
         <v>38866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4614,13 @@
         <v>4024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4608,13 +4629,13 @@
         <v>959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4623,13 +4644,13 @@
         <v>4982</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4665,13 @@
         <v>3397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4662,10 +4683,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4680,7 +4701,7 @@
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4769,13 @@
         <v>2252850</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>2089</v>
@@ -4763,13 +4784,13 @@
         <v>2250571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>4206</v>
@@ -4778,13 +4799,13 @@
         <v>4503422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4820,13 @@
         <v>833861</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
         <v>890</v>
@@ -4814,13 +4835,13 @@
         <v>961438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M23" s="7">
         <v>1669</v>
@@ -4829,13 +4850,13 @@
         <v>1795299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4871,13 @@
         <v>260391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="H24" s="7">
         <v>241</v>
@@ -4865,13 +4886,13 @@
         <v>262002</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M24" s="7">
         <v>480</v>
@@ -4880,13 +4901,13 @@
         <v>522393</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4922,13 @@
         <v>45342</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -4916,13 +4937,13 @@
         <v>53307</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -4931,13 +4952,13 @@
         <v>98648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4973,13 @@
         <v>16051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4967,13 +4988,13 @@
         <v>17403</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>57</v>
+        <v>340</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -4982,13 +5003,13 @@
         <v>33454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,7 +5084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67878891-4DD1-4E25-BF19-29BF3B3BEAB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4924DF22-65BC-49AA-924F-BAEE7C811AEF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5080,7 +5101,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5187,13 +5208,13 @@
         <v>361074</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>424</v>
@@ -5202,13 +5223,13 @@
         <v>475548</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>789</v>
@@ -5217,13 +5238,13 @@
         <v>836622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5259,13 @@
         <v>245870</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -5253,13 +5274,13 @@
         <v>317027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>537</v>
@@ -5268,13 +5289,13 @@
         <v>562897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5310,13 @@
         <v>104761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H6" s="7">
         <v>143</v>
@@ -5304,13 +5325,13 @@
         <v>160484</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M6" s="7">
         <v>248</v>
@@ -5319,13 +5340,13 @@
         <v>265245</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5361,13 @@
         <v>32779</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -5355,13 +5376,13 @@
         <v>30186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5370,13 +5391,13 @@
         <v>62965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5412,13 @@
         <v>8731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>372</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5406,13 +5427,13 @@
         <v>10144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5421,13 +5442,13 @@
         <v>18875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5516,13 @@
         <v>1147849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>1007</v>
@@ -5510,13 +5531,13 @@
         <v>1039641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>2077</v>
@@ -5525,13 +5546,13 @@
         <v>2187490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5567,13 @@
         <v>647691</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -5561,13 +5582,13 @@
         <v>671371</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -5576,13 +5597,13 @@
         <v>1319062</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5618,13 @@
         <v>231153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H12" s="7">
         <v>224</v>
@@ -5612,13 +5633,13 @@
         <v>237138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>444</v>
@@ -5627,13 +5648,13 @@
         <v>468291</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5669,13 @@
         <v>35925</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5663,13 +5684,13 @@
         <v>29418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5678,13 +5699,13 @@
         <v>65343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>416</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5720,13 @@
         <v>10266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5714,10 +5735,10 @@
         <v>5260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>182</v>
@@ -5729,13 +5750,13 @@
         <v>15525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5824,13 @@
         <v>333978</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H16" s="7">
         <v>324</v>
@@ -5818,13 +5839,13 @@
         <v>335198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>630</v>
@@ -5833,13 +5854,13 @@
         <v>669176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5875,13 @@
         <v>152341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>431</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -5869,13 +5890,13 @@
         <v>153877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -5884,13 +5905,13 @@
         <v>306217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5926,13 @@
         <v>55628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -5920,13 +5941,13 @@
         <v>48052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -5935,13 +5956,13 @@
         <v>103680</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5977,13 @@
         <v>3082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>448</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5971,13 +5992,13 @@
         <v>5957</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>449</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5986,13 +6007,13 @@
         <v>9039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>451</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6028,13 @@
         <v>993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
+        <v>448</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6022,13 +6043,13 @@
         <v>1819</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>453</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6037,13 +6058,13 @@
         <v>2812</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6132,13 @@
         <v>1842901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>1755</v>
@@ -6126,13 +6147,13 @@
         <v>1850387</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="M22" s="7">
         <v>3496</v>
@@ -6141,13 +6162,13 @@
         <v>3693287</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6183,13 @@
         <v>1045902</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
       <c r="H23" s="7">
         <v>1076</v>
@@ -6177,13 +6198,13 @@
         <v>1142275</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="M23" s="7">
         <v>2082</v>
@@ -6192,13 +6213,13 @@
         <v>2188177</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6234,13 @@
         <v>391541</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H24" s="7">
         <v>412</v>
@@ -6228,13 +6249,13 @@
         <v>445675</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="M24" s="7">
         <v>786</v>
@@ -6243,13 +6264,13 @@
         <v>837216</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6285,13 @@
         <v>71785</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>260</v>
+        <v>481</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -6279,13 +6300,13 @@
         <v>65561</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -6294,13 +6315,13 @@
         <v>137346</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>473</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6336,13 @@
         <v>19989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6330,13 +6351,13 @@
         <v>17223</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>476</v>
+        <v>90</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6345,13 +6366,13 @@
         <v>37212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>477</v>
+        <v>265</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>478</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,7 +6447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DFA98C-7842-4621-B0CC-9C3D0A14D30B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FDA5E7-C270-4CE6-A872-F146CCE9033E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6443,7 +6464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6550,13 +6571,13 @@
         <v>289065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>721</v>
@@ -6565,13 +6586,13 @@
         <v>417784</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>1082</v>
@@ -6580,13 +6601,13 @@
         <v>706849</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6622,13 @@
         <v>141890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>404</v>
@@ -6616,13 +6637,13 @@
         <v>240857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>584</v>
@@ -6631,13 +6652,13 @@
         <v>382746</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6673,13 @@
         <v>57658</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>179</v>
@@ -6667,13 +6688,13 @@
         <v>100278</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>258</v>
@@ -6682,13 +6703,13 @@
         <v>157936</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6724,13 @@
         <v>36025</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -6718,13 +6739,13 @@
         <v>54300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -6733,13 +6754,13 @@
         <v>90324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>509</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6775,13 @@
         <v>16143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -6769,13 +6790,13 @@
         <v>18353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -6784,13 +6805,13 @@
         <v>34496</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>528</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6879,13 @@
         <v>1357401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>1713</v>
@@ -6873,13 +6894,13 @@
         <v>1310761</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>2848</v>
@@ -6888,13 +6909,13 @@
         <v>2668163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6930,13 @@
         <v>606942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="H11" s="7">
         <v>922</v>
@@ -6924,13 +6945,13 @@
         <v>739140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -6939,13 +6960,13 @@
         <v>1346082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>534</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +6981,13 @@
         <v>107466</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="H12" s="7">
         <v>162</v>
@@ -6975,13 +6996,13 @@
         <v>120110</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="M12" s="7">
         <v>277</v>
@@ -6990,13 +7011,13 @@
         <v>227577</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +7032,13 @@
         <v>70698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>545</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -7026,13 +7047,13 @@
         <v>66057</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>549</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -7041,13 +7062,13 @@
         <v>136755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>560</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,10 +7086,10 @@
         <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -7077,13 +7098,13 @@
         <v>11573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>565</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>556</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -7092,13 +7113,13 @@
         <v>28369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>567</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,13 +7187,13 @@
         <v>458313</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="H16" s="7">
         <v>703</v>
@@ -7181,13 +7202,13 @@
         <v>514958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="M16" s="7">
         <v>1143</v>
@@ -7196,13 +7217,13 @@
         <v>973273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>576</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7238,13 @@
         <v>171644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>567</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -7232,13 +7253,13 @@
         <v>153466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>581</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -7247,13 +7268,13 @@
         <v>325111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7289,13 @@
         <v>26763</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>587</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -7283,13 +7304,13 @@
         <v>33049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -7298,13 +7319,13 @@
         <v>59812</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>578</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7340,13 @@
         <v>8511</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7334,13 +7355,13 @@
         <v>6781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>583</v>
+        <v>329</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>584</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>585</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -7349,13 +7370,13 @@
         <v>15292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>588</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7391,13 @@
         <v>7807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>553</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7385,13 +7406,13 @@
         <v>5632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>598</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -7400,13 +7421,13 @@
         <v>13439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7495,13 @@
         <v>2104781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>3137</v>
@@ -7489,13 +7510,13 @@
         <v>2243504</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>5073</v>
@@ -7504,13 +7525,13 @@
         <v>4348285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>599</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7546,13 @@
         <v>920477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>604</v>
+        <v>356</v>
       </c>
       <c r="H23" s="7">
         <v>1565</v>
@@ -7540,13 +7561,13 @@
         <v>1133463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="M23" s="7">
         <v>2575</v>
@@ -7555,13 +7576,13 @@
         <v>2053940</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7597,13 @@
         <v>191887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="H24" s="7">
         <v>381</v>
@@ -7591,13 +7612,13 @@
         <v>253437</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="M24" s="7">
         <v>605</v>
@@ -7606,13 +7627,13 @@
         <v>445324</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>41</v>
+        <v>617</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7648,13 @@
         <v>115233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>625</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="H25" s="7">
         <v>197</v>
@@ -7642,13 +7663,13 @@
         <v>127138</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>339</v>
@@ -7657,13 +7678,13 @@
         <v>242371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7699,13 @@
         <v>40747</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>564</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>625</v>
+        <v>261</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -7693,10 +7714,10 @@
         <v>35558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>93</v>
@@ -7708,13 +7729,13 @@
         <v>76304</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>625</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P5705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F112205D-AC77-4571-B617-8E5E8AD11C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A7D600-79E1-41BF-96A6-D6E8B4E565A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{132AD559-90E6-4417-8BB2-89AC0BB94B27}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9E30D2E9-312C-4E22-A32F-5C0FCAAC91E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="631">
   <si>
     <t>Población según la frecuencia de recibir amor y afecto en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -1511,442 +1511,427 @@
     <t>Población según la frecuencia de recibir amor y afecto en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5579B283-11FD-4E25-9A0C-F433E798BE56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BFCF44-57ED-45EE-A549-626588A4FF7E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,7 +2494,7 @@
         <v>1237</v>
       </c>
       <c r="N4" s="7">
-        <v>1236313</v>
+        <v>1236312</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2764,7 +2749,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2787,7 +2772,7 @@
         <v>1054</v>
       </c>
       <c r="D10" s="7">
-        <v>1093129</v>
+        <v>1093130</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2817,7 +2802,7 @@
         <v>2028</v>
       </c>
       <c r="N10" s="7">
-        <v>2082149</v>
+        <v>2082150</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2838,7 +2823,7 @@
         <v>449</v>
       </c>
       <c r="D11" s="7">
-        <v>453380</v>
+        <v>453381</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -3042,7 +3027,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3072,7 +3057,7 @@
         <v>3201</v>
       </c>
       <c r="N15" s="7">
-        <v>3279110</v>
+        <v>3279111</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -3403,7 +3388,7 @@
         <v>1960</v>
       </c>
       <c r="D22" s="7">
-        <v>2005425</v>
+        <v>2005424</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
@@ -3454,7 +3439,7 @@
         <v>855</v>
       </c>
       <c r="D23" s="7">
-        <v>863970</v>
+        <v>863969</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>152</v>
@@ -3658,7 +3643,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3721,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8A73F2-D992-44FB-B6AE-40E602617CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3241CA0A-FDFE-4E02-B68F-6F478F5CFAD3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5084,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4924DF22-65BC-49AA-924F-BAEE7C811AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC00BF3-8121-4704-AC9E-574771851102}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6447,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FDA5E7-C270-4CE6-A872-F146CCE9033E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E415C-37C4-4255-ABE4-6BD514065E7C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6568,7 +6553,7 @@
         <v>361</v>
       </c>
       <c r="D4" s="7">
-        <v>289065</v>
+        <v>279631</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>490</v>
@@ -6583,7 +6568,7 @@
         <v>721</v>
       </c>
       <c r="I4" s="7">
-        <v>417784</v>
+        <v>386965</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>493</v>
@@ -6598,7 +6583,7 @@
         <v>1082</v>
       </c>
       <c r="N4" s="7">
-        <v>706849</v>
+        <v>666596</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>496</v>
@@ -6619,7 +6604,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="7">
-        <v>141890</v>
+        <v>134377</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>499</v>
@@ -6634,7 +6619,7 @@
         <v>404</v>
       </c>
       <c r="I5" s="7">
-        <v>240857</v>
+        <v>212668</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>502</v>
@@ -6649,7 +6634,7 @@
         <v>584</v>
       </c>
       <c r="N5" s="7">
-        <v>382746</v>
+        <v>347045</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>505</v>
@@ -6670,46 +6655,46 @@
         <v>79</v>
       </c>
       <c r="D6" s="7">
-        <v>57658</v>
+        <v>53253</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>508</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>509</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H6" s="7">
         <v>179</v>
       </c>
       <c r="I6" s="7">
-        <v>100278</v>
+        <v>88678</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M6" s="7">
         <v>258</v>
       </c>
       <c r="N6" s="7">
-        <v>157936</v>
+        <v>141931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,46 +6706,46 @@
         <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>36025</v>
+        <v>32282</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
       </c>
       <c r="I7" s="7">
-        <v>54300</v>
+        <v>47145</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
       </c>
       <c r="N7" s="7">
-        <v>90324</v>
+        <v>79427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>523</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,46 +6757,46 @@
         <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>16143</v>
+        <v>14595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>524</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>18353</v>
+        <v>16183</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>34496</v>
+        <v>30778</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,7 +6808,7 @@
         <v>690</v>
       </c>
       <c r="D9" s="7">
-        <v>540780</v>
+        <v>514139</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6838,7 +6823,7 @@
         <v>1421</v>
       </c>
       <c r="I9" s="7">
-        <v>831572</v>
+        <v>751639</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6853,7 +6838,7 @@
         <v>2111</v>
       </c>
       <c r="N9" s="7">
-        <v>1372352</v>
+        <v>1265778</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6876,46 +6861,46 @@
         <v>1135</v>
       </c>
       <c r="D10" s="7">
-        <v>1357401</v>
+        <v>1550855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H10" s="7">
         <v>1713</v>
       </c>
       <c r="I10" s="7">
-        <v>1310761</v>
+        <v>1293900</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M10" s="7">
         <v>2848</v>
       </c>
       <c r="N10" s="7">
-        <v>2668163</v>
+        <v>2844755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,46 +6912,46 @@
         <v>640</v>
       </c>
       <c r="D11" s="7">
-        <v>606942</v>
+        <v>559748</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H11" s="7">
         <v>922</v>
       </c>
       <c r="I11" s="7">
-        <v>739140</v>
+        <v>766903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
       </c>
       <c r="N11" s="7">
-        <v>1346082</v>
+        <v>1326651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>547</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6978,40 +6963,40 @@
         <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>107466</v>
+        <v>98710</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>547</v>
+        <v>128</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H12" s="7">
         <v>162</v>
       </c>
       <c r="I12" s="7">
-        <v>120110</v>
+        <v>106985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M12" s="7">
         <v>277</v>
       </c>
       <c r="N12" s="7">
-        <v>227577</v>
+        <v>205695</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>554</v>
@@ -7029,46 +7014,46 @@
         <v>81</v>
       </c>
       <c r="D13" s="7">
-        <v>70698</v>
+        <v>62709</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>556</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
       </c>
       <c r="I13" s="7">
-        <v>66057</v>
+        <v>57747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>525</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
       </c>
       <c r="N13" s="7">
-        <v>136755</v>
+        <v>120456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>560</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,46 +7065,46 @@
         <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>16797</v>
+        <v>15676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>563</v>
+        <v>419</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>564</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>11573</v>
+        <v>10553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>565</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>566</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>562</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>28369</v>
+        <v>26228</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>567</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>568</v>
+        <v>419</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7116,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2159304</v>
+        <v>2287698</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7146,7 +7131,7 @@
         <v>2918</v>
       </c>
       <c r="I15" s="7">
-        <v>2247642</v>
+        <v>2236087</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7161,7 +7146,7 @@
         <v>4908</v>
       </c>
       <c r="N15" s="7">
-        <v>4406946</v>
+        <v>4523785</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7184,46 +7169,46 @@
         <v>440</v>
       </c>
       <c r="D16" s="7">
-        <v>458313</v>
+        <v>446271</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>703</v>
       </c>
       <c r="I16" s="7">
-        <v>514958</v>
+        <v>479270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>1143</v>
       </c>
       <c r="N16" s="7">
-        <v>973273</v>
+        <v>925541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,46 +7220,46 @@
         <v>190</v>
       </c>
       <c r="D17" s="7">
-        <v>171644</v>
+        <v>160546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>353</v>
+        <v>575</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
       </c>
       <c r="I17" s="7">
-        <v>153466</v>
+        <v>139911</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
       </c>
       <c r="N17" s="7">
-        <v>325111</v>
+        <v>300457</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,46 +7271,46 @@
         <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>26763</v>
+        <v>24808</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>588</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
       </c>
       <c r="I18" s="7">
-        <v>33049</v>
+        <v>29892</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
       </c>
       <c r="N18" s="7">
-        <v>59812</v>
+        <v>54700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>586</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,46 +7322,46 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>8511</v>
+        <v>7678</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>588</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>6781</v>
+        <v>6331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>591</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>15292</v>
+        <v>14008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,46 +7373,46 @@
         <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>7807</v>
+        <v>7321</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>5632</v>
+        <v>5059</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>598</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
       </c>
       <c r="N20" s="7">
-        <v>13439</v>
+        <v>12379</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>599</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>600</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,7 +7424,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7454,7 +7439,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7469,7 +7454,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7492,46 +7477,46 @@
         <v>1936</v>
       </c>
       <c r="D22" s="7">
-        <v>2104781</v>
+        <v>2276757</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>3137</v>
       </c>
       <c r="I22" s="7">
-        <v>2243504</v>
+        <v>2160135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>5073</v>
       </c>
       <c r="N22" s="7">
-        <v>4348285</v>
+        <v>4436892</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,46 +7528,46 @@
         <v>1010</v>
       </c>
       <c r="D23" s="7">
-        <v>920477</v>
+        <v>854672</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>607</v>
       </c>
       <c r="H23" s="7">
         <v>1565</v>
       </c>
       <c r="I23" s="7">
-        <v>1133463</v>
+        <v>1119481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M23" s="7">
         <v>2575</v>
       </c>
       <c r="N23" s="7">
-        <v>2053940</v>
+        <v>1974153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>615</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,46 +7579,46 @@
         <v>224</v>
       </c>
       <c r="D24" s="7">
-        <v>191887</v>
+        <v>176771</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>618</v>
+        <v>291</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H24" s="7">
         <v>381</v>
       </c>
       <c r="I24" s="7">
-        <v>253437</v>
+        <v>225555</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M24" s="7">
         <v>605</v>
       </c>
       <c r="N24" s="7">
-        <v>445324</v>
+        <v>402327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,46 +7630,46 @@
         <v>142</v>
       </c>
       <c r="D25" s="7">
-        <v>115233</v>
+        <v>102669</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H25" s="7">
         <v>197</v>
       </c>
       <c r="I25" s="7">
-        <v>127138</v>
+        <v>111223</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>626</v>
       </c>
       <c r="M25" s="7">
         <v>339</v>
       </c>
       <c r="N25" s="7">
-        <v>242371</v>
+        <v>213891</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>630</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,46 +7681,46 @@
         <v>49</v>
       </c>
       <c r="D26" s="7">
-        <v>40747</v>
+        <v>37591</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>564</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>633</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
       </c>
       <c r="I26" s="7">
-        <v>35558</v>
+        <v>31795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
       </c>
       <c r="N26" s="7">
-        <v>76304</v>
+        <v>69386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,7 +7732,7 @@
         <v>3361</v>
       </c>
       <c r="D27" s="7">
-        <v>3373124</v>
+        <v>3448460</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7762,7 +7747,7 @@
         <v>5343</v>
       </c>
       <c r="I27" s="7">
-        <v>3793100</v>
+        <v>3648189</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7777,7 +7762,7 @@
         <v>8704</v>
       </c>
       <c r="N27" s="7">
-        <v>7166224</v>
+        <v>7096649</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
